--- a/result/8月/表10-上海出口和进口贸易伙伴占比变化（2019-2024）.xlsx
+++ b/result/8月/表10-上海出口和进口贸易伙伴占比变化（2019-2024）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,13 +174,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +192,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -665,156 +659,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1163,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1244,7 +1239,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.153953581946751</v>
       </c>
       <c r="H2" t="s">
@@ -1262,7 +1257,7 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.100382002463483</v>
       </c>
     </row>
@@ -1285,7 +1280,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.084815223409473</v>
       </c>
       <c r="H3" t="s">
@@ -1303,7 +1298,7 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.0627891234862202</v>
       </c>
     </row>
@@ -1326,7 +1321,7 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.0700568035466383</v>
       </c>
       <c r="H4" t="s">
@@ -1344,7 +1339,7 @@
       <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>0.081325641712341</v>
       </c>
     </row>
@@ -1367,7 +1362,7 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.0488064027846746</v>
       </c>
       <c r="H5" t="s">
@@ -1385,7 +1380,7 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.0724824046081505</v>
       </c>
     </row>
@@ -1408,7 +1403,7 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.0456730934611529</v>
       </c>
       <c r="H6" t="s">
@@ -1426,7 +1421,7 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>0.0638510406712813</v>
       </c>
     </row>
@@ -1449,7 +1444,7 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.0400956071716584</v>
       </c>
       <c r="H7" t="s">
@@ -1467,7 +1462,7 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.0681199458555632</v>
       </c>
     </row>
@@ -1490,7 +1485,7 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.0349905038864734</v>
       </c>
       <c r="H8" t="s">
@@ -1508,7 +1503,7 @@
       <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>0.0530020169558732</v>
       </c>
     </row>
@@ -1531,7 +1526,7 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.0283977719692047</v>
       </c>
       <c r="H9" t="s">
@@ -1549,7 +1544,7 @@
       <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>0.0337538687998992</v>
       </c>
     </row>
@@ -1572,7 +1567,7 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.0283788274454086</v>
       </c>
       <c r="H10" t="s">
@@ -1590,7 +1585,7 @@
       <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>0.0327793574952668</v>
       </c>
     </row>
@@ -1613,7 +1608,7 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.0309180356558875</v>
       </c>
       <c r="H11" t="s">
@@ -1631,7 +1626,7 @@
       <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.034273083376249</v>
       </c>
     </row>
@@ -1654,7 +1649,7 @@
       <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.0276336281925128</v>
       </c>
       <c r="H12" t="s">
@@ -1672,7 +1667,7 @@
       <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.0289079511435947</v>
       </c>
     </row>
@@ -1695,7 +1690,7 @@
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.0269363667953402</v>
       </c>
       <c r="H13" t="s">
@@ -1713,7 +1708,7 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>0.0306287890661278</v>
       </c>
     </row>
@@ -1736,7 +1731,7 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.0226945672726525</v>
       </c>
       <c r="H14" t="s">
@@ -1754,7 +1749,7 @@
       <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.0255194351591942</v>
       </c>
     </row>
@@ -1777,7 +1772,7 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>0.0237498605720048</v>
       </c>
       <c r="H15" t="s">
@@ -1795,7 +1790,7 @@
       <c r="L15" t="s">
         <v>32</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>0.0239044101496458</v>
       </c>
     </row>
@@ -1818,7 +1813,7 @@
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>0.0196709933343188</v>
       </c>
       <c r="H16" t="s">
@@ -1836,7 +1831,7 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>0.0229849143829787</v>
       </c>
     </row>
@@ -1859,7 +1854,7 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>0.0219758793111373</v>
       </c>
       <c r="H17" t="s">
@@ -1877,7 +1872,7 @@
       <c r="L17" t="s">
         <v>39</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>0.0150757087442461</v>
       </c>
     </row>
@@ -1900,7 +1895,7 @@
       <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>0.0190380512705576</v>
       </c>
       <c r="H18" t="s">
@@ -1918,7 +1913,7 @@
       <c r="L18" t="s">
         <v>34</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>0.016865891451702</v>
       </c>
     </row>
@@ -1941,7 +1936,7 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>0.0178543727723509</v>
       </c>
       <c r="H19" t="s">
@@ -1959,7 +1954,7 @@
       <c r="L19" t="s">
         <v>40</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>0.0181565203453192</v>
       </c>
     </row>
@@ -1982,7 +1977,7 @@
       <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>0.0142035004718053</v>
       </c>
       <c r="H20" t="s">
@@ -2000,7 +1995,7 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>0.0188935647698906</v>
       </c>
     </row>
@@ -2023,7 +2018,7 @@
       <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>0.0122036666865365</v>
       </c>
       <c r="H21" t="s">
@@ -2041,7 +2036,7 @@
       <c r="L21" t="s">
         <v>31</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>0.0177018339962366</v>
       </c>
     </row>
@@ -2064,7 +2059,7 @@
       <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>0.168779871917393</v>
       </c>
       <c r="H22" t="s">
@@ -2082,7 +2077,7 @@
       <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>0.203697532645153</v>
       </c>
     </row>
@@ -2105,7 +2100,7 @@
       <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>0.136090269540109</v>
       </c>
       <c r="H23" t="s">
@@ -2123,7 +2118,7 @@
       <c r="L23" t="s">
         <v>45</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>0.129202400564221</v>
       </c>
     </row>
